--- a/content/math-coursework.xlsx
+++ b/content/math-coursework.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djssh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djssh\Documents\GitHub\djshuster.github.io\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C00B9D9-5F90-49E8-B3C2-9B3B098CF523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FF3A85-2E37-4BB5-93C4-CE9810F57C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>vector spaces, subspaces, linear independence, basis, and dimension; systems of linear equations and Gaussian elimination, matrix operations; linear transformations as matrices; eigenvalues and eigenvectors; inner product spaces</t>
   </si>
   <si>
-    <t>upper-level Economics Department course; applications-focused</t>
-  </si>
-  <si>
     <t>parametric and nonparametric methods, resampling approaches, analysis of variance models, multiple regression, model selection, and logistic regression</t>
   </si>
   <si>
@@ -112,6 +109,10 @@
   </si>
   <si>
     <t>Completeness of the real numbers; convergence, bounded monotone sequences, Cauchy sequences, Bolzano-Weierstrass Theorem; countability, open and closed sets, compactness, Heine-Borel Theorem; Functions and continuity, Intermediate Value Theorem, continuous functions on a compact set, uniform continuity; Derivatives, Rolle's Theorem and Mean Value Theorem; Riemann integration; Uniform convergence of sequences and series of functions, continuity of the limit, derivatives and integrals of series, Weierstrass M-Test, power series</t>
+  </si>
+  <si>
+    <t>applications-focused upper-level Economics Department course: Nash equilibrium, Stackelberg
+equilibrium, repeated games, evolutionary game theory, moral hazard, adverse selection, incomplete information and signaling, signaling with continuous actions</t>
   </si>
 </sst>
 </file>
@@ -524,14 +525,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -567,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -578,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -607,12 +608,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>1</v>
@@ -623,7 +624,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1</v>
@@ -651,12 +652,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>0</v>
@@ -673,12 +674,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>1</v>
@@ -689,7 +690,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>0</v>

--- a/content/math-coursework.xlsx
+++ b/content/math-coursework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djssh\Documents\GitHub\djshuster.github.io\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FF3A85-2E37-4BB5-93C4-CE9810F57C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2221E768-0425-431D-9B28-4D59648C09E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>A</t>
   </si>
@@ -69,9 +69,6 @@
     <t>David Shuster: Math &amp; Related Coursework</t>
   </si>
   <si>
-    <t>Course</t>
-  </si>
-  <si>
     <t>Grade</t>
   </si>
   <si>
@@ -111,8 +108,79 @@
     <t>Completeness of the real numbers; convergence, bounded monotone sequences, Cauchy sequences, Bolzano-Weierstrass Theorem; countability, open and closed sets, compactness, Heine-Borel Theorem; Functions and continuity, Intermediate Value Theorem, continuous functions on a compact set, uniform continuity; Derivatives, Rolle's Theorem and Mean Value Theorem; Riemann integration; Uniform convergence of sequences and series of functions, continuity of the limit, derivatives and integrals of series, Weierstrass M-Test, power series</t>
   </si>
   <si>
-    <t>applications-focused upper-level Economics Department course: Nash equilibrium, Stackelberg
-equilibrium, repeated games, evolutionary game theory, moral hazard, adverse selection, incomplete information and signaling, signaling with continuous actions</t>
+    <t>Textbook</t>
+  </si>
+  <si>
+    <t>Note: All courses were taken at Amherst College.</t>
+  </si>
+  <si>
+    <t>MATH-211</t>
+  </si>
+  <si>
+    <t>MATH-271</t>
+  </si>
+  <si>
+    <t>COSC-111</t>
+  </si>
+  <si>
+    <t>MATH-350</t>
+  </si>
+  <si>
+    <t>MATH-135</t>
+  </si>
+  <si>
+    <t>MATH-355</t>
+  </si>
+  <si>
+    <t>MATH-385</t>
+  </si>
+  <si>
+    <t>COSC-112</t>
+  </si>
+  <si>
+    <t>MATH-252</t>
+  </si>
+  <si>
+    <t>ECON-420</t>
+  </si>
+  <si>
+    <t>MATH-150</t>
+  </si>
+  <si>
+    <t>MATH-455</t>
+  </si>
+  <si>
+    <t>STAT-230</t>
+  </si>
+  <si>
+    <t>Abstract Algebra: A First Course (Dan Saracino), 2nd ed.</t>
+  </si>
+  <si>
+    <t>Understanding Analysis (Stephen Abbott), 2nd ed.</t>
+  </si>
+  <si>
+    <t>An Introduction to Mathematical Cryptography</t>
+  </si>
+  <si>
+    <t>A Friendly Introduction to Mathematical Logic (Leary &amp; Kristiansen)</t>
+  </si>
+  <si>
+    <t>The Mathematics of Voting and Elections: A Hands-On Approach (Hodge, Klima) &amp; 2 other books</t>
+  </si>
+  <si>
+    <t>Game Theory: An Introduction (Steven Tadelis)</t>
+  </si>
+  <si>
+    <t>Topology (James Munkres), 2nd ed.</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>applications-focused upper-level Economics Department course: Nash equilibrium, Stackelberg equilibrium, repeated games, evolutionary game theory, moral hazard, adverse selection, incomplete information and signaling, signaling with continuous actions</t>
   </si>
 </sst>
 </file>
@@ -128,19 +196,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -210,39 +278,37 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,184 +589,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="61.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="8" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="207" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="9" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>